--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -258,7 +258,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -266,23 +266,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -290,10 +291,10 @@
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.5" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.6875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1339,273 +1340,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2554134D-541E-4F55-B934-85D1C6C963FE}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A967E94A-D544-480B-8F9A-DF6C7DEAF28D}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C25EDCE7-8CAD-4793-A45C-82B8022FAFA9}"/>
 </file>
--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="74">
   <si>
     <t>Sezione</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>minuto</t>
+  </si>
+  <si>
+    <t>Dati Generali</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
   <si>
     <t>Generalità Sposo</t>
@@ -283,7 +292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -445,13 +454,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -459,19 +468,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -479,19 +488,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -499,19 +508,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -519,19 +528,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -539,19 +548,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -559,19 +568,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -579,19 +588,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -599,19 +608,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -619,19 +628,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -639,19 +648,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -659,19 +668,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -679,19 +688,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -699,19 +708,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -719,19 +728,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -739,19 +748,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -759,19 +768,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -779,19 +788,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -799,19 +808,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -819,19 +828,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -839,19 +848,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -859,19 +868,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -879,19 +888,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -899,19 +908,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -919,19 +928,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -939,19 +948,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -959,19 +968,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -979,19 +988,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -999,19 +1008,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1019,19 +1028,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1039,19 +1048,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1059,19 +1068,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1079,19 +1088,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1099,19 +1108,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1119,19 +1128,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1139,19 +1148,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1159,19 +1168,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1179,19 +1188,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1199,19 +1208,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1219,19 +1228,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1239,19 +1248,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1259,19 +1268,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1279,19 +1288,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1299,19 +1308,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1319,21 +1328,41 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="F52" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="E53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="82">
   <si>
     <t>Sezione</t>
   </si>
@@ -74,24 +74,48 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati Generali</t>
+    <t>Dati generali</t>
   </si>
   <si>
     <t>Data decorrenza</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>dataDecorrenza</t>
   </si>
   <si>
+    <t>Ora decorrenza</t>
+  </si>
+  <si>
+    <t>oraDecorrenza</t>
+  </si>
+  <si>
+    <t>Minuto decorrenza</t>
+  </si>
+  <si>
+    <t>minutoDecorrenza</t>
+  </si>
+  <si>
+    <t>Motivo recupero</t>
+  </si>
+  <si>
+    <t>motivoRecupero</t>
+  </si>
+  <si>
+    <t>Descrizione recupero</t>
+  </si>
+  <si>
+    <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
     <t>Generalità Sposo</t>
   </si>
   <si>
     <t>Cognome</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
@@ -218,7 +242,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>flag firmatario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>
@@ -292,7 +316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -302,7 +326,7 @@
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -454,13 +478,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -468,19 +492,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -488,19 +512,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -508,19 +532,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -528,19 +552,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -548,16 +572,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>35</v>
@@ -568,7 +592,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
@@ -577,7 +601,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>37</v>
@@ -588,16 +612,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>39</v>
@@ -608,16 +632,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>41</v>
@@ -628,16 +652,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>43</v>
@@ -648,16 +672,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>45</v>
@@ -668,16 +692,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
@@ -688,16 +712,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>49</v>
@@ -708,16 +732,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
@@ -728,16 +752,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>53</v>
@@ -748,16 +772,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>55</v>
@@ -768,16 +792,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>57</v>
@@ -788,16 +812,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>59</v>
@@ -808,16 +832,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>61</v>
@@ -828,16 +852,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>63</v>
@@ -848,16 +872,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>65</v>
@@ -868,16 +892,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>67</v>
@@ -888,16 +912,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>69</v>
@@ -908,19 +932,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -928,19 +952,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -948,19 +972,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -968,19 +992,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -988,16 +1012,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>35</v>
@@ -1008,7 +1032,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>36</v>
@@ -1017,7 +1041,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>37</v>
@@ -1028,16 +1052,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>39</v>
@@ -1048,16 +1072,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>41</v>
@@ -1068,16 +1092,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>43</v>
@@ -1088,16 +1112,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>45</v>
@@ -1108,16 +1132,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>47</v>
@@ -1128,16 +1152,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>49</v>
@@ -1148,16 +1172,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>51</v>
@@ -1168,16 +1192,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>53</v>
@@ -1188,16 +1212,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>55</v>
@@ -1208,16 +1232,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>57</v>
@@ -1228,16 +1252,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>59</v>
@@ -1248,16 +1272,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>61</v>
@@ -1268,16 +1292,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>63</v>
@@ -1288,16 +1312,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>65</v>
@@ -1308,16 +1332,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>67</v>
@@ -1328,16 +1352,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>69</v>
@@ -1348,21 +1372,101 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="E57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -110,6 +116,60 @@
     <t>descrizioneMotivoRecupero</t>
   </si>
   <si>
+    <t>Data Matrimonio</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio</t>
+  </si>
+  <si>
+    <t>dataEvento</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.luogoCelebrazione</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Comune estero</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
     <t>Generalità Sposo</t>
   </si>
   <si>
@@ -252,6 +312,81 @@
   </si>
   <si>
     <t>evento.intestatari[1]</t>
+  </si>
+  <si>
+    <t>Atto collegato</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
   </si>
   <si>
     <t>Composizione libera</t>
@@ -316,18 +451,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="45.375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -349,25 +485,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -389,1085 +531,1710 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Formula</t>
@@ -463,7 +463,7 @@
     <col min="4" max="4" width="45.375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,19 +32,22 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>999.3.3</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>999.3.3</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -532,1709 +535,1709 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Comune estero</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMatrimonio.attoEstero.enteEstero</t>
   </si>
   <si>
     <t>comuneEstero</t>
@@ -463,7 +466,7 @@
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
@@ -917,10 +920,10 @@
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -931,19 +934,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -954,19 +957,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -977,19 +980,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1000,19 +1003,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1023,19 +1026,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1046,19 +1049,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1069,19 +1072,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1092,19 +1095,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1115,19 +1118,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1138,19 +1141,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1161,19 +1164,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1184,19 +1187,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1207,19 +1210,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1230,19 +1233,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1253,19 +1256,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1276,19 +1279,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1299,19 +1302,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1322,19 +1325,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1345,19 +1348,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1368,19 +1371,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1391,19 +1394,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1414,19 +1417,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1437,19 +1440,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1460,19 +1463,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1483,19 +1486,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1506,19 +1509,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1529,19 +1532,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1552,19 +1555,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1575,19 +1578,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1598,19 +1601,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1621,19 +1624,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1644,19 +1647,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1667,19 +1670,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1690,19 +1693,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1713,19 +1716,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1736,19 +1739,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1759,19 +1762,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1782,19 +1785,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1808,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1828,19 +1831,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1851,19 +1854,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1874,19 +1877,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1897,19 +1900,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1920,19 +1923,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1943,154 +1946,154 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>15</v>
@@ -2099,44 +2102,44 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>18</v>
@@ -2145,84 +2148,84 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2231,7 +2234,7 @@
         <v>14</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -940,7 +940,7 @@
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>56</v>
@@ -1170,7 +1170,7 @@
         <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>56</v>
@@ -1193,7 +1193,7 @@
         <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>56</v>
@@ -1216,7 +1216,7 @@
         <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>56</v>
@@ -1239,7 +1239,7 @@
         <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>56</v>
@@ -1446,7 +1446,7 @@
         <v>55</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>101</v>
@@ -1676,7 +1676,7 @@
         <v>76</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>101</v>
@@ -1699,7 +1699,7 @@
         <v>78</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>101</v>
@@ -1722,7 +1722,7 @@
         <v>80</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>101</v>
@@ -1745,7 +1745,7 @@
         <v>82</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>101</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -399,6 +399,30 @@
   </si>
   <si>
     <t>composizioneCompleta</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -457,17 +481,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.58203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2243,6 +2267,75 @@
         <v>16</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -167,7 +167,7 @@
     <t>nomeComune</t>
   </si>
   <si>
-    <t>Comune estero</t>
+    <t>Località estera</t>
   </si>
   <si>
     <t>evento.trascrizioneMatrimonio.attoEstero.enteEstero</t>
@@ -242,6 +242,9 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -377,22 +380,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Composizione libera</t>
@@ -481,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1191,7 +1194,7 @@
         <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>25</v>
@@ -1200,7 +1203,7 @@
         <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1214,7 +1217,7 @@
         <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>25</v>
@@ -1223,7 +1226,7 @@
         <v>56</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1237,7 +1240,7 @@
         <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>25</v>
@@ -1246,7 +1249,7 @@
         <v>56</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1260,7 +1263,7 @@
         <v>54</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>25</v>
@@ -1269,7 +1272,7 @@
         <v>56</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1283,7 +1286,7 @@
         <v>54</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>25</v>
@@ -1292,7 +1295,7 @@
         <v>56</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1306,7 +1309,7 @@
         <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>25</v>
@@ -1315,7 +1318,7 @@
         <v>56</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1329,7 +1332,7 @@
         <v>54</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>25</v>
@@ -1338,7 +1341,7 @@
         <v>56</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1352,7 +1355,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>25</v>
@@ -1361,7 +1364,7 @@
         <v>56</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1375,7 +1378,7 @@
         <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>25</v>
@@ -1384,7 +1387,7 @@
         <v>56</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1398,16 +1401,16 @@
         <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1421,7 +1424,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -1430,7 +1433,7 @@
         <v>56</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1444,16 +1447,16 @@
         <v>54</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1464,19 +1467,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1487,19 +1490,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1510,19 +1513,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1533,19 +1536,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1556,19 +1559,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1579,19 +1582,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1602,19 +1605,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1625,19 +1628,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1648,19 +1651,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1671,19 +1674,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1694,19 +1697,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1717,19 +1720,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1740,19 +1743,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1763,19 +1766,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1786,19 +1789,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1809,19 +1812,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1832,19 +1835,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1855,19 +1858,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1878,19 +1881,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1901,19 +1904,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1924,19 +1927,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1947,19 +1950,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1970,341 +1973,341 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2315,24 +2318,70 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E80" s="2" t="s">
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="2" t="s">
+      <c r="C82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -2209,7 +2209,7 @@
         <v>121</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>105</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -315,6 +315,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -484,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1490,19 +1514,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1513,19 +1537,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1536,19 +1560,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1559,19 +1583,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1582,19 +1606,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1605,19 +1629,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1628,19 +1652,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1651,19 +1675,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1674,19 +1698,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1697,19 +1721,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1744,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1767,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1790,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1813,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1836,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1835,19 +1859,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1858,19 +1882,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1881,19 +1905,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1904,19 +1928,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1927,19 +1951,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1950,19 +1974,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1997,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1996,19 +2020,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2019,369 +2043,553 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E82" s="2" t="s">
+      <c r="B87" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="2" t="s">
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>Località estera</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneMatrimonio.attoEstero.enteEstero</t>
   </si>
   <si>
     <t>comuneEstero</t>
@@ -517,7 +514,7 @@
     <col min="1" max="1" width="23.58203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="45.375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
@@ -971,10 +968,10 @@
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -985,19 +982,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1008,19 +1005,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -1031,19 +1028,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1054,19 +1051,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1077,19 +1074,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1100,19 +1097,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1123,19 +1120,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1146,19 +1143,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1169,19 +1166,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1192,19 +1189,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1215,7 +1212,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>51</v>
@@ -1224,10 +1221,10 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1238,19 +1235,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1261,19 +1258,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1284,19 +1281,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1307,19 +1304,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1330,19 +1327,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1353,19 +1350,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1376,19 +1373,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1399,19 +1396,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1422,19 +1419,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1445,19 +1442,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1468,19 +1465,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1491,19 +1488,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1514,19 +1511,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1537,19 +1534,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1560,19 +1557,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1583,19 +1580,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1606,19 +1603,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1629,19 +1626,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1652,19 +1649,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1675,19 +1672,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1695,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1721,19 +1718,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1744,19 +1741,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1767,19 +1764,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1790,19 +1787,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1813,19 +1810,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1836,7 +1833,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>51</v>
@@ -1845,10 +1842,10 @@
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1856,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1879,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1905,19 +1902,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1928,19 +1925,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1951,19 +1948,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1974,19 +1971,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1997,19 +1994,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2020,19 +2017,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2043,19 +2040,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2066,19 +2063,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2089,19 +2086,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2112,19 +2109,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2135,19 +2132,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2158,19 +2155,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2181,19 +2178,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2204,19 +2201,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2227,154 +2224,154 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>15</v>
@@ -2383,44 +2380,44 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>18</v>
@@ -2429,84 +2426,84 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -2515,7 +2512,7 @@
         <v>14</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2523,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2546,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2572,19 +2569,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -191,6 +191,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -242,13 +248,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -417,6 +423,18 @@
   </si>
   <si>
     <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto di Nascita dello sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposo</t>
+  </si>
+  <si>
+    <t>Atto di Nascita della sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposa</t>
   </si>
   <si>
     <t>Composizione libera</t>
@@ -505,13 +523,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.58203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.375" customWidth="true" bestFit="true"/>
@@ -1034,7 +1052,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>55</v>
@@ -1126,7 +1144,7 @@
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>55</v>
@@ -1215,7 +1233,7 @@
         <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>25</v>
@@ -1224,7 +1242,7 @@
         <v>55</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1238,7 +1256,7 @@
         <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>25</v>
@@ -1448,7 +1466,7 @@
         <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>55</v>
@@ -1494,7 +1512,7 @@
         <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>55</v>
@@ -1603,19 +1621,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1626,19 +1644,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1649,19 +1667,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1672,19 +1690,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1695,19 +1713,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1718,19 +1736,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1741,19 +1759,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1764,19 +1782,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1787,19 +1805,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1810,19 +1828,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1833,19 +1851,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1856,19 +1874,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1879,19 +1897,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1902,19 +1920,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1925,19 +1943,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1948,19 +1966,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1971,19 +1989,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1994,19 +2012,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2017,19 +2035,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2040,19 +2058,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2063,19 +2081,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2086,19 +2104,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2109,19 +2127,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2132,19 +2150,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2155,19 +2173,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2178,19 +2196,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2201,19 +2219,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2227,22 +2245,22 @@
         <v>110</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
@@ -2250,298 +2268,298 @@
         <v>110</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89">
@@ -2549,16 +2567,16 @@
         <v>137</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2572,21 +2590,619 @@
         <v>137</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E90" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
+      <c r="C114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -523,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1489,7 +1495,7 @@
         <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>55</v>
@@ -1535,7 +1541,7 @@
         <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>55</v>
@@ -1644,19 +1650,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1667,19 +1673,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1690,19 +1696,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1713,19 +1719,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1736,19 +1742,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1759,19 +1765,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1782,19 +1788,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1811,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1828,19 +1834,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1851,19 +1857,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1874,19 +1880,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1897,19 +1903,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1920,19 +1926,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1943,19 +1949,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1966,19 +1972,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1989,19 +1995,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2012,19 +2018,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2035,19 +2041,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2058,19 +2064,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2087,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2110,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2133,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2156,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2179,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2202,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2219,19 +2225,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2242,19 +2248,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2271,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2291,22 +2297,22 @@
         <v>112</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
@@ -2314,315 +2320,315 @@
         <v>112</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2633,19 +2639,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2656,19 +2662,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2679,19 +2685,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2702,19 +2708,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2725,19 +2731,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2748,19 +2754,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2771,19 +2777,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2794,19 +2800,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2817,19 +2823,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2843,7 +2849,7 @@
         <v>139</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
@@ -2852,7 +2858,7 @@
         <v>140</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2866,7 +2872,7 @@
         <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
@@ -2875,7 +2881,7 @@
         <v>140</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2886,19 +2892,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2909,19 +2915,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2932,19 +2938,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2955,19 +2961,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2978,19 +2984,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3001,19 +3007,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3024,19 +3030,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3047,19 +3053,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3070,19 +3076,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3093,19 +3099,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3119,16 +3125,16 @@
         <v>141</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3139,19 +3145,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3165,16 +3171,16 @@
         <v>143</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3185,24 +3191,70 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="C117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
+      <c r="B118" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -529,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1518,7 +1524,7 @@
         <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>55</v>
@@ -1564,7 +1570,7 @@
         <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>55</v>
@@ -1673,19 +1679,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1696,19 +1702,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1719,19 +1725,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1742,19 +1748,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1765,19 +1771,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1788,19 +1794,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1811,19 +1817,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1840,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1863,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1880,19 +1886,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1903,19 +1909,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1926,19 +1932,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1949,19 +1955,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1972,19 +1978,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1995,19 +2001,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2018,19 +2024,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2041,19 +2047,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2064,19 +2070,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2087,19 +2093,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2110,19 +2116,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2133,19 +2139,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2156,19 +2162,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2179,19 +2185,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2202,19 +2208,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2225,19 +2231,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2248,19 +2254,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2271,19 +2277,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2294,19 +2300,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2317,19 +2323,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2343,22 +2349,22 @@
         <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -2366,315 +2372,315 @@
         <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2685,19 +2691,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2708,19 +2714,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2731,19 +2737,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2754,19 +2760,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2777,19 +2783,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2800,19 +2806,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2823,19 +2829,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2846,19 +2852,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2869,19 +2875,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2895,7 +2901,7 @@
         <v>141</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
@@ -2904,7 +2910,7 @@
         <v>142</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2918,7 +2924,7 @@
         <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
@@ -2927,7 +2933,7 @@
         <v>142</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2938,19 +2944,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2961,19 +2967,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2984,19 +2990,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3007,19 +3013,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3030,19 +3036,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3053,19 +3059,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3076,19 +3082,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3099,19 +3105,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3122,19 +3128,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3145,19 +3151,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3171,16 +3177,16 @@
         <v>143</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3191,19 +3197,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3217,16 +3223,16 @@
         <v>145</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3237,24 +3243,70 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="C119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="B120" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -429,6 +429,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -535,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2668,42 +2674,42 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2714,19 +2720,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2737,19 +2743,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2760,19 +2766,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2783,19 +2789,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2806,19 +2812,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2829,19 +2835,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2852,19 +2858,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2875,19 +2881,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2898,19 +2904,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2921,19 +2927,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2947,7 +2953,7 @@
         <v>143</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
@@ -2956,7 +2962,7 @@
         <v>144</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2970,7 +2976,7 @@
         <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
@@ -2979,7 +2985,7 @@
         <v>144</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2990,19 +2996,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3013,19 +3019,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3036,19 +3042,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3059,19 +3065,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3082,19 +3088,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3105,19 +3111,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3128,19 +3134,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3151,19 +3157,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3174,19 +3180,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3197,19 +3203,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3223,16 +3229,16 @@
         <v>145</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3243,19 +3249,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3266,19 +3272,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3292,21 +3298,90 @@
         <v>147</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="C122" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
+      <c r="B123" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,6 +119,12 @@
     <t>descrizioneMotivoRecupero</t>
   </si>
   <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
+  </si>
+  <si>
     <t>Data Matrimonio</t>
   </si>
   <si>
@@ -354,6 +360,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -541,14 +553,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="24.76953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
@@ -840,13 +852,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -860,16 +872,16 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -883,13 +895,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -909,10 +921,10 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -935,7 +947,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -958,7 +970,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -981,7 +993,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -1004,7 +1016,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -1018,19 +1030,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1041,16 +1053,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -1064,16 +1076,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -1087,16 +1099,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1110,7 +1122,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
@@ -1119,7 +1131,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1133,7 +1145,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -1142,7 +1154,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1156,7 +1168,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1165,7 +1177,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1179,16 +1191,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1202,7 +1214,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -1211,7 +1223,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1225,7 +1237,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
@@ -1234,7 +1246,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1248,7 +1260,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1257,7 +1269,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1271,19 +1283,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1294,16 +1306,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>79</v>
@@ -1317,7 +1329,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>80</v>
@@ -1326,7 +1338,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>81</v>
@@ -1340,7 +1352,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>82</v>
@@ -1349,7 +1361,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>83</v>
@@ -1363,7 +1375,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>84</v>
@@ -1372,7 +1384,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>85</v>
@@ -1386,7 +1398,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>86</v>
@@ -1395,7 +1407,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>87</v>
@@ -1409,7 +1421,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>88</v>
@@ -1418,7 +1430,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>89</v>
@@ -1432,7 +1444,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>90</v>
@@ -1441,7 +1453,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>91</v>
@@ -1455,7 +1467,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>92</v>
@@ -1464,7 +1476,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>93</v>
@@ -1478,7 +1490,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>94</v>
@@ -1487,7 +1499,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1501,7 +1513,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>96</v>
@@ -1510,7 +1522,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>97</v>
@@ -1524,7 +1536,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>98</v>
@@ -1533,7 +1545,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>99</v>
@@ -1547,16 +1559,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>101</v>
@@ -1570,7 +1582,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>102</v>
@@ -1579,7 +1591,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>103</v>
@@ -1593,16 +1605,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>105</v>
@@ -1616,7 +1628,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>106</v>
@@ -1625,7 +1637,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>107</v>
@@ -1639,7 +1651,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>108</v>
@@ -1648,7 +1660,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>109</v>
@@ -1662,7 +1674,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>110</v>
@@ -1671,7 +1683,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>111</v>
@@ -1685,7 +1697,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>112</v>
@@ -1694,7 +1706,7 @@
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>113</v>
@@ -1708,19 +1720,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1731,19 +1743,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1754,19 +1766,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1777,19 +1789,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1812,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1835,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1858,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1881,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1904,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1927,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1938,19 +1950,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1961,19 +1973,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1984,19 +1996,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2019,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2042,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2065,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2088,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2111,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2134,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2157,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2180,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2203,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2226,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2249,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2272,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2295,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2318,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2341,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2364,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2387,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2398,387 +2410,387 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2789,19 +2801,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2812,19 +2824,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2835,19 +2847,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2858,19 +2870,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2881,19 +2893,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2904,7 +2916,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>135</v>
@@ -2913,10 +2925,10 @@
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2927,19 +2939,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2950,19 +2962,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2973,19 +2985,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2996,19 +3008,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3019,19 +3031,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3042,19 +3054,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3065,19 +3077,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3088,19 +3100,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3111,19 +3123,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3134,19 +3146,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3157,19 +3169,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3180,19 +3192,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3203,7 +3215,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>135</v>
@@ -3212,10 +3224,10 @@
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3226,19 +3238,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3249,19 +3261,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3272,19 +3284,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3295,19 +3307,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3321,16 +3333,16 @@
         <v>149</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3344,16 +3356,16 @@
         <v>149</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3364,24 +3376,116 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E123" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,12 +119,6 @@
     <t>descrizioneMotivoRecupero</t>
   </si>
   <si>
-    <t>Identificativo Atto Cartaceo</t>
-  </si>
-  <si>
-    <t>idAttoCartaceo</t>
-  </si>
-  <si>
     <t>Data Matrimonio</t>
   </si>
   <si>
@@ -360,12 +354,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -553,14 +541,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="24.76953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
@@ -852,13 +840,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -872,16 +860,16 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -895,13 +883,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -921,10 +909,10 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -947,7 +935,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -970,7 +958,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -993,7 +981,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -1016,7 +1004,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -1030,19 +1018,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1053,16 +1041,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -1076,16 +1064,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -1099,16 +1087,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1122,7 +1110,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
@@ -1131,7 +1119,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1145,7 +1133,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -1154,7 +1142,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1168,7 +1156,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1177,7 +1165,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1191,16 +1179,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1214,7 +1202,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -1223,7 +1211,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1237,7 +1225,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
@@ -1246,7 +1234,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1260,7 +1248,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1269,7 +1257,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1283,19 +1271,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1306,16 +1294,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>79</v>
@@ -1329,7 +1317,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>80</v>
@@ -1338,7 +1326,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>81</v>
@@ -1352,7 +1340,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>82</v>
@@ -1361,7 +1349,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>83</v>
@@ -1375,7 +1363,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>84</v>
@@ -1384,7 +1372,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>85</v>
@@ -1398,7 +1386,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>86</v>
@@ -1407,7 +1395,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>87</v>
@@ -1421,7 +1409,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>88</v>
@@ -1430,7 +1418,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>89</v>
@@ -1444,7 +1432,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>90</v>
@@ -1453,7 +1441,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>91</v>
@@ -1467,7 +1455,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>92</v>
@@ -1476,7 +1464,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>93</v>
@@ -1490,7 +1478,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>94</v>
@@ -1499,7 +1487,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1513,7 +1501,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>96</v>
@@ -1522,7 +1510,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>97</v>
@@ -1536,7 +1524,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>98</v>
@@ -1545,7 +1533,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>99</v>
@@ -1559,16 +1547,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>101</v>
@@ -1582,7 +1570,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>102</v>
@@ -1591,7 +1579,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>103</v>
@@ -1605,16 +1593,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>105</v>
@@ -1628,7 +1616,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>106</v>
@@ -1637,7 +1625,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>107</v>
@@ -1651,7 +1639,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>108</v>
@@ -1660,7 +1648,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>109</v>
@@ -1674,7 +1662,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>110</v>
@@ -1683,7 +1671,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>111</v>
@@ -1697,7 +1685,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>112</v>
@@ -1706,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>113</v>
@@ -1720,19 +1708,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1731,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1754,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1777,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1800,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1835,19 +1823,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1858,19 +1846,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1881,19 +1869,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1904,19 +1892,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1927,19 +1915,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1950,19 +1938,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1961,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1996,19 +1984,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2019,19 +2007,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2042,19 +2030,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2065,19 +2053,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2088,19 +2076,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2111,19 +2099,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2134,19 +2122,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2157,19 +2145,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2180,19 +2168,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2203,19 +2191,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2226,19 +2214,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2249,19 +2237,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2272,19 +2260,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2295,19 +2283,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2318,19 +2306,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2341,19 +2329,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2364,19 +2352,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2387,19 +2375,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2410,387 +2398,387 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2801,19 +2789,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2824,19 +2812,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2847,19 +2835,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2870,19 +2858,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2893,19 +2881,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2916,7 +2904,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>135</v>
@@ -2925,10 +2913,10 @@
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2939,19 +2927,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2962,19 +2950,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2985,19 +2973,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3008,19 +2996,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3031,19 +3019,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3054,19 +3042,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3077,19 +3065,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3100,19 +3088,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3123,19 +3111,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3146,19 +3134,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3169,19 +3157,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3192,19 +3180,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3215,7 +3203,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>135</v>
@@ -3224,10 +3212,10 @@
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3238,19 +3226,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3261,19 +3249,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3284,19 +3272,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3307,19 +3295,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3333,16 +3321,16 @@
         <v>149</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3356,16 +3344,16 @@
         <v>149</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3376,19 +3364,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3399,93 +3387,24 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,6 +119,12 @@
     <t>descrizioneMotivoRecupero</t>
   </si>
   <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
+  </si>
+  <si>
     <t>Data Matrimonio</t>
   </si>
   <si>
@@ -354,6 +360,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -541,14 +553,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="24.76953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
@@ -840,13 +852,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -860,16 +872,16 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -883,13 +895,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -909,10 +921,10 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -935,7 +947,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -958,7 +970,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -981,7 +993,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -1004,7 +1016,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -1018,19 +1030,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1041,16 +1053,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -1064,16 +1076,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -1087,16 +1099,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1110,7 +1122,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
@@ -1119,7 +1131,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1133,7 +1145,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -1142,7 +1154,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1156,7 +1168,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1165,7 +1177,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1179,16 +1191,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1202,7 +1214,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -1211,7 +1223,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1225,7 +1237,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
@@ -1234,7 +1246,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1248,7 +1260,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1257,7 +1269,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1271,19 +1283,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1294,16 +1306,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>79</v>
@@ -1317,7 +1329,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>80</v>
@@ -1326,7 +1338,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>81</v>
@@ -1340,7 +1352,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>82</v>
@@ -1349,7 +1361,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>83</v>
@@ -1363,7 +1375,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>84</v>
@@ -1372,7 +1384,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>85</v>
@@ -1386,7 +1398,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>86</v>
@@ -1395,7 +1407,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>87</v>
@@ -1409,7 +1421,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>88</v>
@@ -1418,7 +1430,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>89</v>
@@ -1432,7 +1444,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>90</v>
@@ -1441,7 +1453,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>91</v>
@@ -1455,7 +1467,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>92</v>
@@ -1464,7 +1476,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>93</v>
@@ -1478,7 +1490,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>94</v>
@@ -1487,7 +1499,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1501,7 +1513,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>96</v>
@@ -1510,7 +1522,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>97</v>
@@ -1524,7 +1536,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>98</v>
@@ -1533,7 +1545,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>99</v>
@@ -1547,16 +1559,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>101</v>
@@ -1570,7 +1582,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>102</v>
@@ -1579,7 +1591,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>103</v>
@@ -1593,16 +1605,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>105</v>
@@ -1616,7 +1628,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>106</v>
@@ -1625,7 +1637,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>107</v>
@@ -1639,7 +1651,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>108</v>
@@ -1648,7 +1660,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>109</v>
@@ -1662,7 +1674,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>110</v>
@@ -1671,7 +1683,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>111</v>
@@ -1685,7 +1697,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>112</v>
@@ -1694,7 +1706,7 @@
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>113</v>
@@ -1708,19 +1720,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1731,19 +1743,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1754,19 +1766,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1777,19 +1789,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1812,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1835,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1858,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1881,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1904,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1927,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1938,19 +1950,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1961,19 +1973,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1984,19 +1996,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2019,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2042,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2065,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2088,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2111,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2134,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2157,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2180,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2203,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2226,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2249,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2272,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2295,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2318,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2341,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2364,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2387,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2398,387 +2410,387 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2789,19 +2801,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2812,19 +2824,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2835,19 +2847,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2858,19 +2870,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2881,19 +2893,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2904,7 +2916,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>135</v>
@@ -2913,10 +2925,10 @@
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2927,19 +2939,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2950,19 +2962,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2973,19 +2985,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2996,19 +3008,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3019,19 +3031,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3042,19 +3054,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3065,19 +3077,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3088,19 +3100,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3111,19 +3123,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3134,19 +3146,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3157,19 +3169,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3180,19 +3192,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3203,7 +3215,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>135</v>
@@ -3212,10 +3224,10 @@
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3226,19 +3238,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3249,19 +3261,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3272,19 +3284,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3295,19 +3307,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3321,16 +3333,16 @@
         <v>149</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3344,16 +3356,16 @@
         <v>149</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3364,19 +3376,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3387,24 +3399,93 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E124" s="2" t="s">
+      <c r="C127" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="165">
   <si>
     <t>Sezione</t>
   </si>
@@ -207,6 +207,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -553,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1151,7 +1163,7 @@
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>57</v>
@@ -1174,7 +1186,7 @@
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>57</v>
@@ -1220,7 +1232,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>57</v>
@@ -1243,7 +1255,7 @@
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>57</v>
@@ -1309,7 +1321,7 @@
         <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>25</v>
@@ -1318,7 +1330,7 @@
         <v>57</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1332,7 +1344,7 @@
         <v>55</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>25</v>
@@ -1341,7 +1353,7 @@
         <v>57</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1355,7 +1367,7 @@
         <v>55</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>25</v>
@@ -1588,7 +1600,7 @@
         <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>57</v>
@@ -1611,7 +1623,7 @@
         <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>57</v>
@@ -1634,7 +1646,7 @@
         <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>57</v>
@@ -1657,7 +1669,7 @@
         <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>57</v>
@@ -1766,19 +1778,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1801,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1824,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1835,19 +1847,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1858,19 +1870,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1881,19 +1893,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1904,19 +1916,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1927,19 +1939,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1950,19 +1962,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1985,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1996,19 +2008,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2019,19 +2031,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2042,19 +2054,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2065,19 +2077,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2088,19 +2100,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2111,19 +2123,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2134,19 +2146,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2157,19 +2169,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2180,19 +2192,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2203,19 +2215,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2226,19 +2238,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2249,19 +2261,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2272,19 +2284,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2295,19 +2307,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2318,19 +2330,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2341,19 +2353,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2364,19 +2376,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2387,19 +2399,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2410,19 +2422,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2433,19 +2445,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2456,19 +2468,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2479,410 +2491,410 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2893,19 +2905,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2916,19 +2928,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2939,19 +2951,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2962,19 +2974,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2985,19 +2997,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3008,19 +3020,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3031,19 +3043,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3054,19 +3066,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3077,19 +3089,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3100,19 +3112,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3123,19 +3135,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3146,19 +3158,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3169,19 +3181,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3192,19 +3204,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3215,19 +3227,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3238,19 +3250,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3261,19 +3273,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3284,19 +3296,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3307,19 +3319,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3330,19 +3342,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3353,19 +3365,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3376,19 +3388,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3402,16 +3414,16 @@
         <v>153</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3425,16 +3437,16 @@
         <v>153</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3448,16 +3460,16 @@
         <v>153</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3468,24 +3480,116 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E127" s="2" t="s">
+      <c r="C131" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="167">
   <si>
     <t>Sezione</t>
   </si>
@@ -35,6 +35,18 @@
     <t>Condizioni obbligatorieta'</t>
   </si>
   <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -44,9 +56,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -87,9 +96,6 @@
   </si>
   <si>
     <t>Data decorrenza</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>dataDecorrenza</t>
@@ -565,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -627,63 +633,63 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -692,90 +698,90 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -784,21 +790,21 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -807,21 +813,21 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -830,21 +836,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -853,21 +859,21 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -876,12 +882,12 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>37</v>
@@ -890,53 +896,53 @@
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -945,21 +951,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -968,21 +974,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -991,21 +997,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -1014,21 +1020,21 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -1037,21 +1043,21 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -1060,44 +1066,44 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -1106,21 +1112,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1129,12 +1135,12 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
@@ -1143,7 +1149,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1152,21 +1158,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1175,21 +1181,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1198,12 +1204,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -1212,7 +1218,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1221,21 +1227,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1244,21 +1250,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1267,21 +1273,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1290,21 +1296,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1313,21 +1319,21 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1336,21 +1342,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1359,44 +1365,44 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>85</v>
@@ -1405,21 +1411,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>87</v>
@@ -1428,21 +1434,21 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>89</v>
@@ -1451,21 +1457,21 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>91</v>
@@ -1474,21 +1480,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>93</v>
@@ -1497,21 +1503,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1520,21 +1526,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>97</v>
@@ -1543,21 +1549,21 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>99</v>
@@ -1566,21 +1572,21 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>101</v>
@@ -1589,21 +1595,21 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>103</v>
@@ -1612,21 +1618,21 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>105</v>
@@ -1635,12 +1641,12 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>106</v>
@@ -1649,7 +1655,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>107</v>
@@ -1658,21 +1664,21 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>109</v>
@@ -1681,21 +1687,21 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>111</v>
@@ -1704,21 +1710,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>113</v>
@@ -1727,21 +1733,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>115</v>
@@ -1750,21 +1756,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>117</v>
@@ -1773,21 +1779,21 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>119</v>
@@ -1796,21 +1802,21 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>121</v>
@@ -1819,44 +1825,44 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>60</v>
@@ -1865,21 +1871,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>62</v>
@@ -1888,12 +1894,12 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>63</v>
@@ -1902,7 +1908,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>64</v>
@@ -1911,21 +1917,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>66</v>
@@ -1934,21 +1940,21 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>68</v>
@@ -1957,12 +1963,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>69</v>
@@ -1971,7 +1977,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>70</v>
@@ -1980,21 +1986,21 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>72</v>
@@ -2003,21 +2009,21 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>74</v>
@@ -2026,21 +2032,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>76</v>
@@ -2049,21 +2055,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>78</v>
@@ -2072,21 +2078,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>80</v>
@@ -2095,21 +2101,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>82</v>
@@ -2118,44 +2124,44 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>85</v>
@@ -2164,21 +2170,21 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>87</v>
@@ -2187,21 +2193,21 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>89</v>
@@ -2210,21 +2216,21 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>91</v>
@@ -2233,21 +2239,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>93</v>
@@ -2256,21 +2262,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>95</v>
@@ -2279,21 +2285,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>97</v>
@@ -2302,21 +2308,21 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>99</v>
@@ -2325,21 +2331,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>101</v>
@@ -2348,21 +2354,21 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>103</v>
@@ -2371,21 +2377,21 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>105</v>
@@ -2394,12 +2400,12 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>106</v>
@@ -2408,7 +2414,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>107</v>
@@ -2417,21 +2423,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>109</v>
@@ -2440,21 +2446,21 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>111</v>
@@ -2463,21 +2469,21 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>113</v>
@@ -2486,21 +2492,21 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>115</v>
@@ -2509,21 +2515,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>117</v>
@@ -2532,21 +2538,21 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>119</v>
@@ -2555,21 +2561,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>121</v>
@@ -2578,7 +2584,7 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
@@ -2586,59 +2592,59 @@
         <v>124</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E89" s="2" t="s">
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>132</v>
@@ -2647,21 +2653,21 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>134</v>
@@ -2670,21 +2676,21 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>136</v>
@@ -2693,21 +2699,21 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>138</v>
@@ -2716,113 +2722,113 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>146</v>
@@ -2831,21 +2837,21 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>148</v>
@@ -2854,21 +2860,21 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>150</v>
@@ -2877,67 +2883,67 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>132</v>
@@ -2946,21 +2952,21 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>134</v>
@@ -2969,21 +2975,21 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>136</v>
@@ -2992,21 +2998,21 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>138</v>
@@ -3015,113 +3021,113 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>146</v>
@@ -3130,21 +3136,21 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>148</v>
@@ -3153,21 +3159,21 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>150</v>
@@ -3176,7 +3182,7 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114">
@@ -3184,59 +3190,59 @@
         <v>153</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>154</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>132</v>
@@ -3245,21 +3251,21 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>134</v>
@@ -3268,21 +3274,21 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>136</v>
@@ -3291,21 +3297,21 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>138</v>
@@ -3314,113 +3320,113 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>146</v>
@@ -3429,21 +3435,21 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>148</v>
@@ -3452,21 +3458,21 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>150</v>
@@ -3475,7 +3481,7 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127">
@@ -3483,22 +3489,22 @@
         <v>155</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128">
@@ -3506,36 +3512,36 @@
         <v>157</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>162</v>
@@ -3544,21 +3550,21 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>164</v>
@@ -3567,30 +3573,53 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>16</v>
+      <c r="B132" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="169">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>idAttoCartaceo</t>
+  </si>
+  <si>
+    <t>Atto secretato</t>
+  </si>
+  <si>
+    <t>flagsecretato</t>
   </si>
   <si>
     <t>Data Matrimonio</t>
@@ -571,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -916,13 +922,13 @@
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -936,16 +942,16 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -959,13 +965,13 @@
         <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -985,10 +991,10 @@
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -1011,7 +1017,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -1034,7 +1040,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -1057,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -1080,7 +1086,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -1094,19 +1100,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1117,16 +1123,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1140,16 +1146,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1163,16 +1169,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1186,16 +1192,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1209,7 +1215,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -1218,7 +1224,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1232,16 +1238,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1255,7 +1261,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
@@ -1264,7 +1270,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1278,7 +1284,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1287,7 +1293,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1301,16 +1307,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1324,7 +1330,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1333,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1347,7 +1353,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1356,7 +1362,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1370,7 +1376,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1379,7 +1385,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1393,19 +1399,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1416,16 +1422,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>87</v>
@@ -1439,7 +1445,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>88</v>
@@ -1448,7 +1454,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>89</v>
@@ -1462,7 +1468,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>90</v>
@@ -1471,7 +1477,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>91</v>
@@ -1485,7 +1491,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>92</v>
@@ -1494,7 +1500,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>93</v>
@@ -1508,7 +1514,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>94</v>
@@ -1517,7 +1523,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1531,7 +1537,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>96</v>
@@ -1540,7 +1546,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>97</v>
@@ -1554,7 +1560,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>98</v>
@@ -1563,7 +1569,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>99</v>
@@ -1577,7 +1583,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>100</v>
@@ -1586,7 +1592,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>101</v>
@@ -1600,7 +1606,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>102</v>
@@ -1609,7 +1615,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>103</v>
@@ -1623,7 +1629,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>104</v>
@@ -1632,7 +1638,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>105</v>
@@ -1646,7 +1652,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>106</v>
@@ -1655,7 +1661,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>107</v>
@@ -1669,16 +1675,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>109</v>
@@ -1692,7 +1698,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>110</v>
@@ -1701,7 +1707,7 @@
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>111</v>
@@ -1715,16 +1721,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>113</v>
@@ -1738,7 +1744,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>114</v>
@@ -1747,7 +1753,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>115</v>
@@ -1761,7 +1767,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>116</v>
@@ -1770,7 +1776,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>117</v>
@@ -1784,7 +1790,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>118</v>
@@ -1793,7 +1799,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>119</v>
@@ -1807,7 +1813,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>120</v>
@@ -1816,7 +1822,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>121</v>
@@ -1830,7 +1836,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>122</v>
@@ -1839,7 +1845,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>123</v>
@@ -1853,19 +1859,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1876,16 +1882,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>62</v>
@@ -1899,16 +1905,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>64</v>
@@ -1922,16 +1928,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>66</v>
@@ -1945,16 +1951,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>68</v>
@@ -1968,7 +1974,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>69</v>
@@ -1977,7 +1983,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>70</v>
@@ -1991,16 +1997,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>72</v>
@@ -2014,7 +2020,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>73</v>
@@ -2023,7 +2029,7 @@
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>74</v>
@@ -2037,7 +2043,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>75</v>
@@ -2046,7 +2052,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>76</v>
@@ -2060,16 +2066,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>78</v>
@@ -2083,7 +2089,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>79</v>
@@ -2092,7 +2098,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>80</v>
@@ -2106,7 +2112,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>81</v>
@@ -2115,7 +2121,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>82</v>
@@ -2129,7 +2135,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>83</v>
@@ -2138,7 +2144,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>84</v>
@@ -2152,19 +2158,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2175,16 +2181,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>87</v>
@@ -2198,7 +2204,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>88</v>
@@ -2207,7 +2213,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>89</v>
@@ -2221,7 +2227,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>90</v>
@@ -2230,7 +2236,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>91</v>
@@ -2244,7 +2250,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>92</v>
@@ -2253,7 +2259,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>93</v>
@@ -2267,7 +2273,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>94</v>
@@ -2276,7 +2282,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>95</v>
@@ -2290,7 +2296,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>96</v>
@@ -2299,7 +2305,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>97</v>
@@ -2313,7 +2319,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>98</v>
@@ -2322,7 +2328,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>99</v>
@@ -2336,7 +2342,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>100</v>
@@ -2345,7 +2351,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>101</v>
@@ -2359,7 +2365,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>102</v>
@@ -2368,7 +2374,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>103</v>
@@ -2382,7 +2388,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>104</v>
@@ -2391,7 +2397,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>105</v>
@@ -2405,7 +2411,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>106</v>
@@ -2414,7 +2420,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>107</v>
@@ -2428,16 +2434,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>109</v>
@@ -2451,7 +2457,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>110</v>
@@ -2460,7 +2466,7 @@
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>111</v>
@@ -2474,16 +2480,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>113</v>
@@ -2497,7 +2503,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>114</v>
@@ -2506,7 +2512,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>115</v>
@@ -2520,7 +2526,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>116</v>
@@ -2529,7 +2535,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>117</v>
@@ -2543,7 +2549,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>118</v>
@@ -2552,7 +2558,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>119</v>
@@ -2566,7 +2572,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>120</v>
@@ -2575,7 +2581,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>121</v>
@@ -2589,7 +2595,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>122</v>
@@ -2598,7 +2604,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>123</v>
@@ -2615,50 +2621,50 @@
         <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>133</v>
@@ -2667,7 +2673,7 @@
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>134</v>
@@ -2676,12 +2682,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>135</v>
@@ -2690,7 +2696,7 @@
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>136</v>
@@ -2699,12 +2705,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>137</v>
@@ -2713,7 +2719,7 @@
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>138</v>
@@ -2722,12 +2728,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>139</v>
@@ -2736,7 +2742,7 @@
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>140</v>
@@ -2745,12 +2751,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>141</v>
@@ -2759,90 +2765,90 @@
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>147</v>
@@ -2851,7 +2857,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>148</v>
@@ -2860,12 +2866,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>149</v>
@@ -2874,7 +2880,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>150</v>
@@ -2883,12 +2889,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>151</v>
@@ -2897,7 +2903,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>152</v>
@@ -2906,47 +2912,47 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2957,7 +2963,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>133</v>
@@ -2966,7 +2972,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>134</v>
@@ -2980,7 +2986,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>135</v>
@@ -2989,7 +2995,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>136</v>
@@ -3003,7 +3009,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>137</v>
@@ -3012,7 +3018,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>138</v>
@@ -3026,7 +3032,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>139</v>
@@ -3035,7 +3041,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>140</v>
@@ -3049,7 +3055,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>141</v>
@@ -3058,10 +3064,10 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3072,19 +3078,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3095,7 +3101,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>144</v>
@@ -3104,10 +3110,10 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3118,19 +3124,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3141,7 +3147,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>147</v>
@@ -3150,7 +3156,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>148</v>
@@ -3164,7 +3170,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>149</v>
@@ -3173,7 +3179,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>150</v>
@@ -3187,7 +3193,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>151</v>
@@ -3196,7 +3202,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>152</v>
@@ -3213,7 +3219,7 @@
         <v>155</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3222,7 +3228,7 @@
         <v>156</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3233,19 +3239,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3256,7 +3262,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>133</v>
@@ -3265,7 +3271,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>134</v>
@@ -3279,7 +3285,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>135</v>
@@ -3288,7 +3294,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>136</v>
@@ -3302,7 +3308,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>137</v>
@@ -3311,7 +3317,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>138</v>
@@ -3325,7 +3331,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>139</v>
@@ -3334,7 +3340,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>140</v>
@@ -3348,7 +3354,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>141</v>
@@ -3357,10 +3363,10 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3371,19 +3377,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3394,7 +3400,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>144</v>
@@ -3403,10 +3409,10 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3417,19 +3423,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3440,7 +3446,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>147</v>
@@ -3449,7 +3455,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>148</v>
@@ -3463,7 +3469,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>149</v>
@@ -3472,7 +3478,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>150</v>
@@ -3486,7 +3492,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>151</v>
@@ -3495,7 +3501,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>152</v>
@@ -3512,16 +3518,16 @@
         <v>157</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3535,16 +3541,16 @@
         <v>159</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3555,16 +3561,16 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>164</v>
@@ -3578,7 +3584,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>165</v>
@@ -3587,7 +3593,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>166</v>
@@ -3601,24 +3607,47 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E132" s="2" t="s">
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>19</v>
       </c>
     </row>
